--- a/Spider/2.xlsx
+++ b/Spider/2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\信息\qd2\Spider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\信息\qd3\Spider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CDDB01-0AFC-44DB-B09F-2D83ACDA8F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229458B1-CF89-4B3F-8D54-165C49DCB649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A233"/>
+  <dimension ref="A1:A232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129:XFD129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -997,526 +997,521 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>17024078629</v>
+        <v>17050540195</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>17050540195</v>
+        <v>17050589726</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>17050589726</v>
+        <v>17024077169</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>17024077169</v>
+        <v>17028070356</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>17028070356</v>
+        <v>17050540322</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>17050540322</v>
+        <v>17017044624</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>17017044624</v>
+        <v>17050588482</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>17050588482</v>
+        <v>17054269502</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>17054269502</v>
+        <v>17038343227</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>17038343227</v>
+        <v>17017038310</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>17017038310</v>
+        <v>17050998986</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>17050998986</v>
+        <v>17017041624</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>17017041624</v>
+        <v>17050588514</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>17050588514</v>
+        <v>17017036196</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>17017036196</v>
+        <v>17017918959</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>17017918959</v>
+        <v>17023307623</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>17023307623</v>
+        <v>17050589231</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>17050589231</v>
+        <v>17026846921</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>17026846921</v>
+        <v>17017024504</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>17017024504</v>
+        <v>17017043145</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>17017043145</v>
+        <v>17038391007</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>17038391007</v>
+        <v>17024078579</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>17024078579</v>
+        <v>17038391355</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>17038391355</v>
+        <v>17017021150</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>17017021150</v>
+        <v>17050589007</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>17050589007</v>
+        <v>17017036157</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>17017036157</v>
+        <v>17019468560</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>17019468560</v>
+        <v>17017910903</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>17017910903</v>
+        <v>17026846720</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>17026846720</v>
+        <v>17023309554</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>17023309554</v>
+        <v>17026846113</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>17026846113</v>
+        <v>17010682124</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>17010682124</v>
+        <v>17028070169</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>17028070169</v>
+        <v>17017594996</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>17017594996</v>
+        <v>17028014604</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>17028014604</v>
+        <v>17024074884</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>17024074884</v>
+        <v>17092332340</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>17092332340</v>
+        <v>17090641335</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>17090641335</v>
+        <v>17018404361</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>17018404361</v>
+        <v>17084436953</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>17084436953</v>
+        <v>17090641064</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>17090641064</v>
+        <v>17017932698</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>17017932698</v>
+        <v>17019959968</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>17019959968</v>
+        <v>17024075294</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>17024075294</v>
+        <v>17017038395</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>17017038395</v>
+        <v>17017034385</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>17017034385</v>
+        <v>17024071696</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>17024071696</v>
+        <v>17017043092</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>17017043092</v>
+        <v>17017036561</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>17017036561</v>
+        <v>17017038227</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>17017038227</v>
+        <v>18721431062</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>18721431062</v>
+        <v>13641794464</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>13641794464</v>
+        <v>17555003191</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>17555003191</v>
+        <v>13095508970</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>13095508970</v>
+        <v>15665502970</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>15665502970</v>
+        <v>17050549213</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>17050549213</v>
+        <v>17050588973</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>17050588973</v>
+        <v>17050545561</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>17050545561</v>
+        <v>17040278449</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>17040278449</v>
+        <v>17017043084</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>17017043084</v>
+        <v>17090648571</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>17090648571</v>
+        <v>17028070408</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>17028070408</v>
+        <v>17026846982</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>17026846982</v>
+        <v>17024074409</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>17024074409</v>
+        <v>17050540521</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>17050540521</v>
+        <v>17024073321</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>17024073321</v>
+        <v>17017910701</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>17017910701</v>
+        <v>17017034335</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>17017034335</v>
+        <v>17024074396</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>17024074396</v>
+        <v>17050999896</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>17050999896</v>
+        <v>17028070051</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>17028070051</v>
+        <v>17023309623</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>17023309623</v>
+        <v>17090641809</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>17090641809</v>
+        <v>17017044712</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>17017044712</v>
+        <v>17017912732</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>17017912732</v>
+        <v>17028013264</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>17028013264</v>
+        <v>17017047421</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>17017047421</v>
+        <v>17017036198</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>17017036198</v>
+        <v>17017022503</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>17017022503</v>
+        <v>17024075261</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>17024075261</v>
+        <v>17050548967</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>17050548967</v>
+        <v>17050588930</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>17050588930</v>
+        <v>17017912487</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>17017912487</v>
+        <v>17019468584</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>17019468584</v>
+        <v>17024073067</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>17024073067</v>
+        <v>17017039382</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>17017039382</v>
+        <v>17017038171</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>17017038171</v>
+        <v>17026848332</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>17026848332</v>
+        <v>17021344063</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>17021344063</v>
+        <v>17050588646</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>17050588646</v>
+        <v>17092331702</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>17092331702</v>
+        <v>17050588662</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>17050588662</v>
+        <v>17017919132</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>17017919132</v>
+        <v>17050588559</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>17050588559</v>
+        <v>17017049413</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>17017049413</v>
+        <v>17026848774</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>17026848774</v>
+        <v>17050548804</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>17050548804</v>
+        <v>17017912464</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>17017912464</v>
+        <v>17038391622</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>17038391622</v>
+        <v>17038392077</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>17038392077</v>
+        <v>17024076049</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>17024076049</v>
+        <v>17050585754</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>17050585754</v>
+        <v>17024078045</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>17024078045</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233">
         <v>17092332237</v>
       </c>
     </row>
